--- a/성경일독 순서표.xlsx
+++ b/성경일독 순서표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Videos\Captures\2022-LA-28th\1주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\90일 통독성경\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0052E-60C2-430E-8B96-066DE46C246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436E801-32CE-43B5-B411-5E593E95FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2886" yWindow="930" windowWidth="18234" windowHeight="11046" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="774" windowWidth="20370" windowHeight="11550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="월" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">화!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2820,12 +2810,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2849,6 +2833,12 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -2882,9 +2872,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2922,9 +2912,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2957,26 +2947,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3009,26 +2982,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3239,11 +3195,11 @@
       <c r="B2" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="91">
         <f>C5</f>
-        <v>44809</v>
-      </c>
-      <c r="D2" s="83"/>
+        <v>45173</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="G2" s="38"/>
     </row>
@@ -3251,11 +3207,11 @@
       <c r="B3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="92">
         <f>C94</f>
-        <v>44912</v>
-      </c>
-      <c r="D3" s="84"/>
+        <v>45276</v>
+      </c>
+      <c r="D3" s="92"/>
       <c r="E3" s="77" t="s">
         <v>107</v>
       </c>
@@ -3293,7 +3249,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -3301,7 +3257,7 @@
       </c>
       <c r="C5" s="58">
         <f>J5</f>
-        <v>44809</v>
+        <v>45173</v>
       </c>
       <c r="D5" s="42">
         <f>WEEKDAY(C5)</f>
@@ -3314,17 +3270,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44809</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="49">
         <f>C5+1</f>
-        <v>44810</v>
+        <v>45174</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -3339,13 +3295,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="49">
         <f t="shared" ref="C7:C69" si="0">C6+1</f>
-        <v>44811</v>
+        <v>45175</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="1">WEEKDAY(C7)</f>
@@ -3357,18 +3313,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="49">
         <f t="shared" si="0"/>
-        <v>44812</v>
+        <v>45176</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
@@ -3380,16 +3336,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>45177</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
@@ -3401,16 +3357,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="47">
         <f>C9+1</f>
-        <v>44814</v>
+        <v>45178</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -3422,10 +3378,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -3433,7 +3389,7 @@
       </c>
       <c r="C11" s="48">
         <f>C10+2</f>
-        <v>44816</v>
+        <v>45180</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -3445,16 +3401,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="49">
         <f>C11+1</f>
-        <v>44817</v>
+        <v>45181</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -3466,16 +3422,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="49">
         <f t="shared" si="0"/>
-        <v>44818</v>
+        <v>45182</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -3487,16 +3443,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="49">
         <f t="shared" si="0"/>
-        <v>44819</v>
+        <v>45183</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -3508,16 +3464,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>45184</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -3529,16 +3485,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="47">
         <f>C15+1</f>
-        <v>44821</v>
+        <v>45185</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -3550,10 +3506,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -3561,7 +3517,7 @@
       </c>
       <c r="C17" s="48">
         <f>C16+2</f>
-        <v>44823</v>
+        <v>45187</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="3">WEEKDAY(C17)</f>
@@ -3573,16 +3529,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="49">
         <f t="shared" ref="C18" si="4">C17+1</f>
-        <v>44824</v>
+        <v>45188</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="3"/>
@@ -3594,16 +3550,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="49">
         <f t="shared" si="0"/>
-        <v>44825</v>
+        <v>45189</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="3"/>
@@ -3615,16 +3571,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="49">
         <f t="shared" si="0"/>
-        <v>44826</v>
+        <v>45190</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="3"/>
@@ -3638,13 +3594,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>45191</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="3"/>
@@ -3658,13 +3614,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47">
         <f>C21+1</f>
-        <v>44828</v>
+        <v>45192</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="3"/>
@@ -3678,7 +3634,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -3686,7 +3642,7 @@
       </c>
       <c r="C23" s="48">
         <f>C22+2</f>
-        <v>44830</v>
+        <v>45194</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="3"/>
@@ -3700,13 +3656,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="49">
         <f t="shared" ref="C24" si="5">C23+1</f>
-        <v>44831</v>
+        <v>45195</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="3"/>
@@ -3720,13 +3676,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="49">
         <f t="shared" si="0"/>
-        <v>44832</v>
+        <v>45196</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="3"/>
@@ -3740,13 +3696,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="49">
         <f t="shared" si="0"/>
-        <v>44833</v>
+        <v>45197</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="3"/>
@@ -3760,13 +3716,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="49">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>45198</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="3"/>
@@ -3780,13 +3736,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="47">
         <f>C27+1</f>
-        <v>44835</v>
+        <v>45199</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="3"/>
@@ -3800,7 +3756,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -3808,7 +3764,7 @@
       </c>
       <c r="C29" s="48">
         <f>C28+2</f>
-        <v>44837</v>
+        <v>45201</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="3"/>
@@ -3822,13 +3778,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="49">
         <f t="shared" ref="C30" si="6">C29+1</f>
-        <v>44838</v>
+        <v>45202</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="3"/>
@@ -3842,13 +3798,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="49">
         <f t="shared" si="0"/>
-        <v>44839</v>
+        <v>45203</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="3"/>
@@ -3862,13 +3818,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="49">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>45204</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="3"/>
@@ -3882,13 +3838,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="49">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>45205</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="3"/>
@@ -3902,13 +3858,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47">
         <f>C33+1</f>
-        <v>44842</v>
+        <v>45206</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="3"/>
@@ -3922,7 +3878,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -3930,7 +3886,7 @@
       </c>
       <c r="C35" s="48">
         <f>C34+2</f>
-        <v>44844</v>
+        <v>45208</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="3"/>
@@ -3944,13 +3900,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="49">
         <f t="shared" ref="C36" si="7">C35+1</f>
-        <v>44845</v>
+        <v>45209</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="3"/>
@@ -3964,13 +3920,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="49">
         <f t="shared" si="0"/>
-        <v>44846</v>
+        <v>45210</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="3"/>
@@ -3984,13 +3940,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="49">
         <f t="shared" si="0"/>
-        <v>44847</v>
+        <v>45211</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="3"/>
@@ -4004,13 +3960,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="49">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>45212</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="3"/>
@@ -4024,13 +3980,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="47">
         <f>C39+1</f>
-        <v>44849</v>
+        <v>45213</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="3"/>
@@ -4044,7 +4000,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -4052,7 +4008,7 @@
       </c>
       <c r="C41" s="48">
         <f>C40+2</f>
-        <v>44851</v>
+        <v>45215</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="3"/>
@@ -4066,13 +4022,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="49">
         <f t="shared" ref="C42" si="8">C41+1</f>
-        <v>44852</v>
+        <v>45216</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="3"/>
@@ -4086,13 +4042,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="49">
         <f t="shared" si="0"/>
-        <v>44853</v>
+        <v>45217</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="3"/>
@@ -4106,13 +4062,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="49">
         <f t="shared" si="0"/>
-        <v>44854</v>
+        <v>45218</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="3"/>
@@ -4126,13 +4082,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="49">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>45219</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="3"/>
@@ -4146,13 +4102,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="47">
         <f>C45+1</f>
-        <v>44856</v>
+        <v>45220</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="3"/>
@@ -4166,7 +4122,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -4174,7 +4130,7 @@
       </c>
       <c r="C47" s="48">
         <f>C46+2</f>
-        <v>44858</v>
+        <v>45222</v>
       </c>
       <c r="D47" s="46">
         <f>WEEKDAY(C47)</f>
@@ -4188,13 +4144,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="49">
         <f t="shared" ref="C48" si="9">C47+1</f>
-        <v>44859</v>
+        <v>45223</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="3"/>
@@ -4208,13 +4164,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="49">
         <f t="shared" si="0"/>
-        <v>44860</v>
+        <v>45224</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="3"/>
@@ -4228,13 +4184,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="49">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>45225</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="3"/>
@@ -4248,13 +4204,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="49">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>45226</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="3"/>
@@ -4268,13 +4224,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>45227</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="3"/>
@@ -4288,7 +4244,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -4296,7 +4252,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+2</f>
-        <v>44865</v>
+        <v>45229</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="3"/>
@@ -4310,13 +4266,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="49">
         <f t="shared" ref="C54" si="10">C53+1</f>
-        <v>44866</v>
+        <v>45230</v>
       </c>
       <c r="D54" s="43">
         <f t="shared" si="3"/>
@@ -4330,13 +4286,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="49">
         <f t="shared" si="0"/>
-        <v>44867</v>
+        <v>45231</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="3"/>
@@ -4350,13 +4306,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="49">
         <f t="shared" si="0"/>
-        <v>44868</v>
+        <v>45232</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="3"/>
@@ -4370,13 +4326,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="49">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>45233</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="3"/>
@@ -4390,13 +4346,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="47">
         <f>C57+1</f>
-        <v>44870</v>
+        <v>45234</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="3"/>
@@ -4410,7 +4366,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -4418,7 +4374,7 @@
       </c>
       <c r="C59" s="48">
         <f>C58+2</f>
-        <v>44872</v>
+        <v>45236</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="3"/>
@@ -4432,13 +4388,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="49">
         <f t="shared" ref="C60" si="11">C59+1</f>
-        <v>44873</v>
+        <v>45237</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="3"/>
@@ -4452,13 +4408,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="49">
         <f t="shared" si="0"/>
-        <v>44874</v>
+        <v>45238</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="3"/>
@@ -4472,13 +4428,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="49">
         <f t="shared" si="0"/>
-        <v>44875</v>
+        <v>45239</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="3"/>
@@ -4492,13 +4448,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="49">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>45240</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="3"/>
@@ -4512,13 +4468,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="47">
         <f>C63+1</f>
-        <v>44877</v>
+        <v>45241</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="3"/>
@@ -4532,7 +4488,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -4540,7 +4496,7 @@
       </c>
       <c r="C65" s="48">
         <f>C64+2</f>
-        <v>44879</v>
+        <v>45243</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="3"/>
@@ -4554,13 +4510,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="49">
         <f t="shared" ref="C66" si="12">C65+1</f>
-        <v>44880</v>
+        <v>45244</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="3"/>
@@ -4574,13 +4530,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="49">
         <f t="shared" si="0"/>
-        <v>44881</v>
+        <v>45245</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="3"/>
@@ -4594,13 +4550,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="49">
         <f t="shared" si="0"/>
-        <v>44882</v>
+        <v>45246</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="3"/>
@@ -4614,13 +4570,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="49">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>45247</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="3"/>
@@ -4634,13 +4590,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="47">
         <f>C69+1</f>
-        <v>44884</v>
+        <v>45248</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="3"/>
@@ -4654,7 +4610,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -4662,7 +4618,7 @@
       </c>
       <c r="C71" s="48">
         <f>C70+2</f>
-        <v>44886</v>
+        <v>45250</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="3"/>
@@ -4676,13 +4632,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="49">
         <f t="shared" ref="C72:C93" si="13">C71+1</f>
-        <v>44887</v>
+        <v>45251</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="3"/>
@@ -4696,13 +4652,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="49">
         <f t="shared" si="13"/>
-        <v>44888</v>
+        <v>45252</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="3"/>
@@ -4716,13 +4672,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="49">
         <f t="shared" si="13"/>
-        <v>44889</v>
+        <v>45253</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="3"/>
@@ -4736,13 +4692,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="49">
         <f t="shared" si="13"/>
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="3"/>
@@ -4756,13 +4712,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="47">
         <f t="shared" ref="C76" si="14">C75+2</f>
-        <v>44892</v>
+        <v>45256</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="3"/>
@@ -4776,7 +4732,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -4784,7 +4740,7 @@
       </c>
       <c r="C77" s="48">
         <f t="shared" ref="C77:C78" si="15">C76+1</f>
-        <v>44893</v>
+        <v>45257</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="3"/>
@@ -4798,13 +4754,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="49">
         <f t="shared" si="15"/>
-        <v>44894</v>
+        <v>45258</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="3"/>
@@ -4818,13 +4774,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="49">
         <f t="shared" si="13"/>
-        <v>44895</v>
+        <v>45259</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="3"/>
@@ -4838,13 +4794,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="49">
         <f t="shared" si="13"/>
-        <v>44896</v>
+        <v>45260</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="3"/>
@@ -4858,13 +4814,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="49">
         <f t="shared" si="13"/>
-        <v>44897</v>
+        <v>45261</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="16">WEEKDAY(C81)</f>
@@ -4878,13 +4834,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="47">
         <f>C81+1</f>
-        <v>44898</v>
+        <v>45262</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="16"/>
@@ -4898,7 +4854,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -4906,7 +4862,7 @@
       </c>
       <c r="C83" s="48">
         <f>C82+2</f>
-        <v>44900</v>
+        <v>45264</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="16"/>
@@ -4920,13 +4876,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="49">
         <f t="shared" ref="C84" si="17">C83+1</f>
-        <v>44901</v>
+        <v>45265</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="16"/>
@@ -4940,13 +4896,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="49">
         <f t="shared" si="13"/>
-        <v>44902</v>
+        <v>45266</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="16"/>
@@ -4960,13 +4916,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="49">
         <f t="shared" si="13"/>
-        <v>44903</v>
+        <v>45267</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="16"/>
@@ -4980,13 +4936,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="49">
         <f t="shared" si="13"/>
-        <v>44904</v>
+        <v>45268</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="16"/>
@@ -5000,13 +4956,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="47">
         <f>C87+1</f>
-        <v>44905</v>
+        <v>45269</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="16"/>
@@ -5020,7 +4976,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -5028,7 +4984,7 @@
       </c>
       <c r="C89" s="48">
         <f>C88+2</f>
-        <v>44907</v>
+        <v>45271</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="16"/>
@@ -5042,13 +4998,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="49">
         <f t="shared" ref="C90" si="18">C89+1</f>
-        <v>44908</v>
+        <v>45272</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="16"/>
@@ -5062,13 +5018,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="49">
         <f t="shared" si="13"/>
-        <v>44909</v>
+        <v>45273</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="16"/>
@@ -5082,13 +5038,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="49">
         <f t="shared" si="13"/>
-        <v>44910</v>
+        <v>45274</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="16"/>
@@ -5102,13 +5058,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="49">
         <f t="shared" si="13"/>
-        <v>44911</v>
+        <v>45275</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="16"/>
@@ -5122,13 +5078,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="59">
         <f>C93+1</f>
-        <v>44912</v>
+        <v>45276</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="16"/>
@@ -5143,6 +5099,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="J7:J19"/>
@@ -5156,11 +5117,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -5207,11 +5163,11 @@
       <c r="B2" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="91">
         <f>C5</f>
-        <v>44810</v>
-      </c>
-      <c r="D2" s="83"/>
+        <v>45174</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="G2" s="38"/>
     </row>
@@ -5219,11 +5175,11 @@
       <c r="B3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="92">
         <f>C94</f>
-        <v>44914</v>
-      </c>
-      <c r="D3" s="84"/>
+        <v>45278</v>
+      </c>
+      <c r="D3" s="92"/>
       <c r="E3" s="77" t="s">
         <v>107</v>
       </c>
@@ -5261,7 +5217,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -5269,7 +5225,7 @@
       </c>
       <c r="C5" s="58">
         <f>J5</f>
-        <v>44810</v>
+        <v>45174</v>
       </c>
       <c r="D5" s="42">
         <f>WEEKDAY(C5)</f>
@@ -5282,17 +5238,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44810</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="49">
         <f>C5+1</f>
-        <v>44811</v>
+        <v>45175</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -5307,13 +5263,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="49">
         <f t="shared" ref="C7:C69" si="0">C6+1</f>
-        <v>44812</v>
+        <v>45176</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="1">WEEKDAY(C7)</f>
@@ -5325,18 +5281,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="49">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>45177</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
@@ -5348,16 +5304,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" si="0"/>
-        <v>44814</v>
+        <v>45178</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
@@ -5369,16 +5325,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="47">
         <f>C9+2</f>
-        <v>44816</v>
+        <v>45180</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -5390,10 +5346,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -5401,7 +5357,7 @@
       </c>
       <c r="C11" s="48">
         <f>C10+1</f>
-        <v>44817</v>
+        <v>45181</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -5413,16 +5369,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="49">
         <f>C11+1</f>
-        <v>44818</v>
+        <v>45182</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -5434,16 +5390,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="49">
         <f t="shared" si="0"/>
-        <v>44819</v>
+        <v>45183</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -5455,16 +5411,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="49">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>45184</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -5476,16 +5432,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" si="0"/>
-        <v>44821</v>
+        <v>45185</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -5497,16 +5453,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="47">
         <f>C15+2</f>
-        <v>44823</v>
+        <v>45187</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -5518,10 +5474,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -5529,7 +5485,7 @@
       </c>
       <c r="C17" s="48">
         <f t="shared" ref="C17:C18" si="3">C16+1</f>
-        <v>44824</v>
+        <v>45188</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="4">WEEKDAY(C17)</f>
@@ -5541,16 +5497,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="49">
         <f t="shared" si="3"/>
-        <v>44825</v>
+        <v>45189</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="4"/>
@@ -5562,16 +5518,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="49">
         <f t="shared" si="0"/>
-        <v>44826</v>
+        <v>45190</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="4"/>
@@ -5583,16 +5539,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="49">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>45191</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="4"/>
@@ -5606,13 +5562,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" si="0"/>
-        <v>44828</v>
+        <v>45192</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="4"/>
@@ -5626,13 +5582,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47">
         <f t="shared" ref="C22" si="5">C21+2</f>
-        <v>44830</v>
+        <v>45194</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="4"/>
@@ -5646,7 +5602,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -5654,7 +5610,7 @@
       </c>
       <c r="C23" s="48">
         <f t="shared" ref="C23:C24" si="6">C22+1</f>
-        <v>44831</v>
+        <v>45195</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="4"/>
@@ -5668,13 +5624,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="49">
         <f t="shared" si="6"/>
-        <v>44832</v>
+        <v>45196</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="4"/>
@@ -5688,13 +5644,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="49">
         <f t="shared" si="0"/>
-        <v>44833</v>
+        <v>45197</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="4"/>
@@ -5708,13 +5664,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="49">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>45198</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="4"/>
@@ -5728,13 +5684,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="49">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>45199</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="4"/>
@@ -5748,13 +5704,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" ref="C28" si="7">C27+2</f>
-        <v>44837</v>
+        <v>45201</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="4"/>
@@ -5768,7 +5724,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -5776,7 +5732,7 @@
       </c>
       <c r="C29" s="48">
         <f t="shared" ref="C29:C30" si="8">C28+1</f>
-        <v>44838</v>
+        <v>45202</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="4"/>
@@ -5790,13 +5746,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="49">
         <f t="shared" si="8"/>
-        <v>44839</v>
+        <v>45203</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="4"/>
@@ -5810,13 +5766,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="49">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>45204</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="4"/>
@@ -5830,13 +5786,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="49">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>45205</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="4"/>
@@ -5850,13 +5806,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="49">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45206</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="4"/>
@@ -5870,13 +5826,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47">
         <f t="shared" ref="C34" si="9">C33+2</f>
-        <v>44844</v>
+        <v>45208</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="4"/>
@@ -5890,7 +5846,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5898,7 +5854,7 @@
       </c>
       <c r="C35" s="48">
         <f t="shared" ref="C35:C36" si="10">C34+1</f>
-        <v>44845</v>
+        <v>45209</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="4"/>
@@ -5912,13 +5868,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="49">
         <f t="shared" si="10"/>
-        <v>44846</v>
+        <v>45210</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="4"/>
@@ -5932,13 +5888,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="49">
         <f t="shared" si="0"/>
-        <v>44847</v>
+        <v>45211</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="4"/>
@@ -5952,13 +5908,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="49">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>45212</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="4"/>
@@ -5972,13 +5928,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="49">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>45213</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="4"/>
@@ -5992,13 +5948,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" ref="C40" si="11">C39+2</f>
-        <v>44851</v>
+        <v>45215</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="4"/>
@@ -6012,7 +5968,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -6020,7 +5976,7 @@
       </c>
       <c r="C41" s="48">
         <f t="shared" ref="C41:C42" si="12">C40+1</f>
-        <v>44852</v>
+        <v>45216</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="4"/>
@@ -6034,13 +5990,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="49">
         <f t="shared" si="12"/>
-        <v>44853</v>
+        <v>45217</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="4"/>
@@ -6054,13 +6010,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="49">
         <f t="shared" si="0"/>
-        <v>44854</v>
+        <v>45218</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="4"/>
@@ -6074,13 +6030,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="49">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>45219</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="4"/>
@@ -6094,13 +6050,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="49">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>45220</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="4"/>
@@ -6114,13 +6070,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" ref="C46" si="13">C45+2</f>
-        <v>44858</v>
+        <v>45222</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="4"/>
@@ -6134,7 +6090,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -6142,7 +6098,7 @@
       </c>
       <c r="C47" s="48">
         <f t="shared" ref="C47:C48" si="14">C46+1</f>
-        <v>44859</v>
+        <v>45223</v>
       </c>
       <c r="D47" s="46">
         <f t="shared" si="4"/>
@@ -6156,13 +6112,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="49">
         <f t="shared" si="14"/>
-        <v>44860</v>
+        <v>45224</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="4"/>
@@ -6176,13 +6132,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="49">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>45225</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="4"/>
@@ -6196,13 +6152,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="49">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>45226</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="4"/>
@@ -6216,13 +6172,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="49">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>45227</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="4"/>
@@ -6236,13 +6192,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f>C51+2</f>
-        <v>44865</v>
+        <v>45229</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="4"/>
@@ -6256,7 +6212,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -6264,7 +6220,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+1</f>
-        <v>44866</v>
+        <v>45230</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="4"/>
@@ -6278,13 +6234,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="49">
         <f t="shared" ref="C54" si="15">C53+1</f>
-        <v>44867</v>
+        <v>45231</v>
       </c>
       <c r="D54" s="43">
         <f t="shared" si="4"/>
@@ -6298,13 +6254,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="49">
         <f t="shared" si="0"/>
-        <v>44868</v>
+        <v>45232</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="4"/>
@@ -6318,13 +6274,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="49">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>45233</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="4"/>
@@ -6338,13 +6294,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="49">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>45234</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="4"/>
@@ -6358,13 +6314,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="47">
         <f t="shared" ref="C58" si="16">C57+2</f>
-        <v>44872</v>
+        <v>45236</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="4"/>
@@ -6378,7 +6334,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -6386,7 +6342,7 @@
       </c>
       <c r="C59" s="48">
         <f t="shared" ref="C59:C60" si="17">C58+1</f>
-        <v>44873</v>
+        <v>45237</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="4"/>
@@ -6400,13 +6356,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="49">
         <f t="shared" si="17"/>
-        <v>44874</v>
+        <v>45238</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="4"/>
@@ -6420,13 +6376,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="49">
         <f t="shared" si="0"/>
-        <v>44875</v>
+        <v>45239</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="4"/>
@@ -6440,13 +6396,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="49">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>45240</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="4"/>
@@ -6460,13 +6416,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="49">
         <f t="shared" si="0"/>
-        <v>44877</v>
+        <v>45241</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="4"/>
@@ -6480,13 +6436,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="47">
         <f t="shared" ref="C64" si="18">C63+2</f>
-        <v>44879</v>
+        <v>45243</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="4"/>
@@ -6500,7 +6456,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -6508,7 +6464,7 @@
       </c>
       <c r="C65" s="48">
         <f t="shared" ref="C65:C66" si="19">C64+1</f>
-        <v>44880</v>
+        <v>45244</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="4"/>
@@ -6522,13 +6478,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="49">
         <f t="shared" si="19"/>
-        <v>44881</v>
+        <v>45245</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="4"/>
@@ -6542,13 +6498,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="49">
         <f t="shared" si="0"/>
-        <v>44882</v>
+        <v>45246</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="4"/>
@@ -6562,13 +6518,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="49">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>45247</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="4"/>
@@ -6582,13 +6538,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="49">
         <f t="shared" si="0"/>
-        <v>44884</v>
+        <v>45248</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="4"/>
@@ -6602,13 +6558,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="47">
         <f t="shared" ref="C70" si="20">C69+2</f>
-        <v>44886</v>
+        <v>45250</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="4"/>
@@ -6622,7 +6578,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -6630,7 +6586,7 @@
       </c>
       <c r="C71" s="48">
         <f t="shared" ref="C71:C93" si="21">C70+1</f>
-        <v>44887</v>
+        <v>45251</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="4"/>
@@ -6644,13 +6600,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="49">
         <f t="shared" si="21"/>
-        <v>44888</v>
+        <v>45252</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="4"/>
@@ -6664,13 +6620,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="49">
         <f t="shared" si="21"/>
-        <v>44889</v>
+        <v>45253</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="4"/>
@@ -6684,13 +6640,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="49">
         <f t="shared" si="21"/>
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="4"/>
@@ -6704,13 +6660,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="49">
         <f t="shared" si="21"/>
-        <v>44891</v>
+        <v>45255</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="4"/>
@@ -6724,13 +6680,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="47">
         <f t="shared" ref="C76" si="22">C75+2</f>
-        <v>44893</v>
+        <v>45257</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="4"/>
@@ -6744,7 +6700,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -6752,7 +6708,7 @@
       </c>
       <c r="C77" s="48">
         <f t="shared" ref="C77:C78" si="23">C76+1</f>
-        <v>44894</v>
+        <v>45258</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="4"/>
@@ -6766,13 +6722,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="49">
         <f t="shared" si="23"/>
-        <v>44895</v>
+        <v>45259</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="4"/>
@@ -6786,13 +6742,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="49">
         <f t="shared" si="21"/>
-        <v>44896</v>
+        <v>45260</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="4"/>
@@ -6806,13 +6762,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="49">
         <f t="shared" si="21"/>
-        <v>44897</v>
+        <v>45261</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="4"/>
@@ -6826,13 +6782,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="49">
         <f t="shared" si="21"/>
-        <v>44898</v>
+        <v>45262</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="24">WEEKDAY(C81)</f>
@@ -6846,13 +6802,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="47">
         <f t="shared" ref="C82" si="25">C81+2</f>
-        <v>44900</v>
+        <v>45264</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="24"/>
@@ -6866,7 +6822,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -6874,7 +6830,7 @@
       </c>
       <c r="C83" s="48">
         <f t="shared" ref="C83:C84" si="26">C82+1</f>
-        <v>44901</v>
+        <v>45265</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="24"/>
@@ -6888,13 +6844,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="49">
         <f t="shared" si="26"/>
-        <v>44902</v>
+        <v>45266</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="24"/>
@@ -6908,13 +6864,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="49">
         <f t="shared" si="21"/>
-        <v>44903</v>
+        <v>45267</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="24"/>
@@ -6928,13 +6884,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="49">
         <f t="shared" si="21"/>
-        <v>44904</v>
+        <v>45268</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="24"/>
@@ -6948,13 +6904,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="49">
         <f t="shared" si="21"/>
-        <v>44905</v>
+        <v>45269</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="24"/>
@@ -6968,13 +6924,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="47">
         <f t="shared" ref="C88" si="27">C87+2</f>
-        <v>44907</v>
+        <v>45271</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="24"/>
@@ -6988,7 +6944,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -6996,7 +6952,7 @@
       </c>
       <c r="C89" s="48">
         <f t="shared" ref="C89:C90" si="28">C88+1</f>
-        <v>44908</v>
+        <v>45272</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="24"/>
@@ -7010,13 +6966,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="49">
         <f t="shared" si="28"/>
-        <v>44909</v>
+        <v>45273</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="24"/>
@@ -7030,13 +6986,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="49">
         <f t="shared" si="21"/>
-        <v>44910</v>
+        <v>45274</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="24"/>
@@ -7050,13 +7006,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="49">
         <f t="shared" si="21"/>
-        <v>44911</v>
+        <v>45275</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="24"/>
@@ -7070,13 +7026,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="49">
         <f t="shared" si="21"/>
-        <v>44912</v>
+        <v>45276</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="24"/>
@@ -7090,13 +7046,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="59">
         <f t="shared" ref="C94" si="29">C93+2</f>
-        <v>44914</v>
+        <v>45278</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="24"/>
@@ -7111,6 +7067,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="J7:J19"/>
@@ -7124,11 +7085,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -7175,11 +7131,11 @@
       <c r="B2" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="91">
         <f>C5</f>
-        <v>44804</v>
-      </c>
-      <c r="D2" s="83"/>
+        <v>45175</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="G2" s="38"/>
     </row>
@@ -7187,11 +7143,11 @@
       <c r="B3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="92">
         <f>C94</f>
-        <v>44908</v>
-      </c>
-      <c r="D3" s="84"/>
+        <v>45279</v>
+      </c>
+      <c r="D3" s="92"/>
       <c r="E3" s="77" t="s">
         <v>107</v>
       </c>
@@ -7229,7 +7185,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -7237,7 +7193,7 @@
       </c>
       <c r="C5" s="58">
         <f>J5</f>
-        <v>44804</v>
+        <v>45175</v>
       </c>
       <c r="D5" s="42">
         <f>WEEKDAY(C5)</f>
@@ -7250,17 +7206,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44804</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6">
         <f>C5+1</f>
-        <v>44805</v>
+        <v>45176</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -7275,13 +7231,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ref="C7:C70" si="0">C6+1</f>
-        <v>44806</v>
+        <v>45177</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="1">WEEKDAY(C7)</f>
@@ -7293,18 +7249,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>44807</v>
+        <v>45178</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
@@ -7316,16 +7272,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6">
         <f>C8+2</f>
-        <v>44809</v>
+        <v>45180</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
@@ -7337,16 +7293,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>44810</v>
+        <v>45181</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -7358,10 +7314,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -7369,7 +7325,7 @@
       </c>
       <c r="C11" s="12">
         <f>C10+1</f>
-        <v>44811</v>
+        <v>45182</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -7381,16 +7337,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
         <f>C11+1</f>
-        <v>44812</v>
+        <v>45183</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -7402,16 +7358,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>45184</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -7423,16 +7379,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="0"/>
-        <v>44814</v>
+        <v>45185</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -7444,16 +7400,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="6">
         <f>C14+2</f>
-        <v>44816</v>
+        <v>45187</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -7465,16 +7421,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="0"/>
-        <v>44817</v>
+        <v>45188</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -7486,10 +7442,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -7497,7 +7453,7 @@
       </c>
       <c r="C17" s="12">
         <f>C16+1</f>
-        <v>44818</v>
+        <v>45189</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="3">WEEKDAY(C17)</f>
@@ -7509,16 +7465,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="6">
         <f>C17+1</f>
-        <v>44819</v>
+        <v>45190</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="3"/>
@@ -7530,16 +7486,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>45191</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="3"/>
@@ -7551,16 +7507,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
-        <v>44821</v>
+        <v>45192</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="3"/>
@@ -7574,13 +7530,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="6">
         <f>C20+2</f>
-        <v>44823</v>
+        <v>45194</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="3"/>
@@ -7594,13 +7550,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="0"/>
-        <v>44824</v>
+        <v>45195</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="3"/>
@@ -7614,7 +7570,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -7622,7 +7578,7 @@
       </c>
       <c r="C23" s="12">
         <f>C22+1</f>
-        <v>44825</v>
+        <v>45196</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="3"/>
@@ -7636,13 +7592,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="6">
         <f>C23+1</f>
-        <v>44826</v>
+        <v>45197</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="3"/>
@@ -7656,13 +7612,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>45198</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="3"/>
@@ -7676,13 +7632,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
-        <v>44828</v>
+        <v>45199</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="3"/>
@@ -7696,13 +7652,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="6">
         <f>C26+2</f>
-        <v>44830</v>
+        <v>45201</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="3"/>
@@ -7716,13 +7672,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="0"/>
-        <v>44831</v>
+        <v>45202</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="3"/>
@@ -7736,7 +7692,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -7744,7 +7700,7 @@
       </c>
       <c r="C29" s="12">
         <f>C28+1</f>
-        <v>44832</v>
+        <v>45203</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="3"/>
@@ -7758,13 +7714,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="6">
         <f>C29+1</f>
-        <v>44833</v>
+        <v>45204</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="3"/>
@@ -7778,13 +7734,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>45205</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="3"/>
@@ -7798,13 +7754,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>45206</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="3"/>
@@ -7818,13 +7774,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
         <f>C32+2</f>
-        <v>44837</v>
+        <v>45208</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="3"/>
@@ -7838,13 +7794,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="0"/>
-        <v>44838</v>
+        <v>45209</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="3"/>
@@ -7858,7 +7814,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -7866,7 +7822,7 @@
       </c>
       <c r="C35" s="12">
         <f>C34+1</f>
-        <v>44839</v>
+        <v>45210</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="3"/>
@@ -7880,13 +7836,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6">
         <f>C35+1</f>
-        <v>44840</v>
+        <v>45211</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="3"/>
@@ -7900,13 +7856,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>45212</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="3"/>
@@ -7920,13 +7876,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45213</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="3"/>
@@ -7940,13 +7896,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="6">
         <f>C38+2</f>
-        <v>44844</v>
+        <v>45215</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="3"/>
@@ -7960,13 +7916,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="9">
         <f t="shared" si="0"/>
-        <v>44845</v>
+        <v>45216</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="3"/>
@@ -7980,7 +7936,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -7988,7 +7944,7 @@
       </c>
       <c r="C41" s="12">
         <f>C40+1</f>
-        <v>44846</v>
+        <v>45217</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="3"/>
@@ -8002,13 +7958,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="6">
         <f>C41+1</f>
-        <v>44847</v>
+        <v>45218</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="3"/>
@@ -8022,13 +7978,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>45219</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="3"/>
@@ -8042,13 +7998,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="6">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>45220</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="3"/>
@@ -8062,13 +8018,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="6">
         <f>C44+2</f>
-        <v>44851</v>
+        <v>45222</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="3"/>
@@ -8082,13 +8038,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="9">
         <f t="shared" si="0"/>
-        <v>44852</v>
+        <v>45223</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="3"/>
@@ -8102,7 +8058,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -8110,7 +8066,7 @@
       </c>
       <c r="C47" s="12">
         <f>C46+1</f>
-        <v>44853</v>
+        <v>45224</v>
       </c>
       <c r="D47" s="46">
         <f t="shared" si="3"/>
@@ -8124,13 +8080,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="6">
         <f>C47+1</f>
-        <v>44854</v>
+        <v>45225</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="3"/>
@@ -8144,13 +8100,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>45226</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="3"/>
@@ -8164,13 +8120,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="6">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>45227</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="3"/>
@@ -8184,13 +8140,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="6">
         <f>C50+2</f>
-        <v>44858</v>
+        <v>45229</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="3"/>
@@ -8204,13 +8160,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f t="shared" ref="C52" si="4">C51+1</f>
-        <v>44859</v>
+        <v>45230</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="3"/>
@@ -8224,7 +8180,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -8232,7 +8188,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+1</f>
-        <v>44860</v>
+        <v>45231</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="3"/>
@@ -8246,13 +8202,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="6">
         <f>C53+1</f>
-        <v>44861</v>
+        <v>45232</v>
       </c>
       <c r="D54" s="43">
         <f t="shared" si="3"/>
@@ -8266,13 +8222,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="6">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>45233</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="3"/>
@@ -8286,13 +8242,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="6">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>45234</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="3"/>
@@ -8306,13 +8262,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="6">
         <f>C56+2</f>
-        <v>44865</v>
+        <v>45236</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="3"/>
@@ -8326,13 +8282,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="9">
         <f t="shared" si="0"/>
-        <v>44866</v>
+        <v>45237</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="3"/>
@@ -8346,7 +8302,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -8354,7 +8310,7 @@
       </c>
       <c r="C59" s="12">
         <f>C58+1</f>
-        <v>44867</v>
+        <v>45238</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="3"/>
@@ -8368,13 +8324,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="6">
         <f>C59+1</f>
-        <v>44868</v>
+        <v>45239</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="3"/>
@@ -8388,13 +8344,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="6">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>45240</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="3"/>
@@ -8408,13 +8364,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="6">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>45241</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="3"/>
@@ -8428,13 +8384,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="6">
         <f>C62+2</f>
-        <v>44872</v>
+        <v>45243</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="3"/>
@@ -8448,13 +8404,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="9">
         <f t="shared" si="0"/>
-        <v>44873</v>
+        <v>45244</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="3"/>
@@ -8468,7 +8424,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -8476,7 +8432,7 @@
       </c>
       <c r="C65" s="12">
         <f>C64+1</f>
-        <v>44874</v>
+        <v>45245</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="3"/>
@@ -8490,13 +8446,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="6">
         <f>C65+1</f>
-        <v>44875</v>
+        <v>45246</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="3"/>
@@ -8510,13 +8466,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="6">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>45247</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="3"/>
@@ -8530,13 +8486,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="6">
         <f t="shared" si="0"/>
-        <v>44877</v>
+        <v>45248</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="3"/>
@@ -8550,13 +8506,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="6">
         <f>C68+2</f>
-        <v>44879</v>
+        <v>45250</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="3"/>
@@ -8570,13 +8526,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="9">
         <f t="shared" si="0"/>
-        <v>44880</v>
+        <v>45251</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="3"/>
@@ -8590,7 +8546,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -8598,7 +8554,7 @@
       </c>
       <c r="C71" s="12">
         <f>C70+1</f>
-        <v>44881</v>
+        <v>45252</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="3"/>
@@ -8612,13 +8568,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="6">
         <f>C71+1</f>
-        <v>44882</v>
+        <v>45253</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="3"/>
@@ -8632,13 +8588,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="6">
         <f t="shared" ref="C73:C74" si="5">C72+1</f>
-        <v>44883</v>
+        <v>45254</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="3"/>
@@ -8652,13 +8608,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="6">
         <f t="shared" si="5"/>
-        <v>44884</v>
+        <v>45255</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="3"/>
@@ -8672,13 +8628,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="6">
         <f>C74+2</f>
-        <v>44886</v>
+        <v>45257</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="3"/>
@@ -8692,13 +8648,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="9">
         <f t="shared" ref="C76:C80" si="6">C75+1</f>
-        <v>44887</v>
+        <v>45258</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="3"/>
@@ -8712,7 +8668,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -8720,7 +8676,7 @@
       </c>
       <c r="C77" s="12">
         <f>C76+1</f>
-        <v>44888</v>
+        <v>45259</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="3"/>
@@ -8734,13 +8690,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="6">
         <f>C77+1</f>
-        <v>44889</v>
+        <v>45260</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="3"/>
@@ -8754,13 +8710,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="6">
         <f t="shared" si="6"/>
-        <v>44890</v>
+        <v>45261</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="3"/>
@@ -8774,13 +8730,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="6">
         <f t="shared" si="6"/>
-        <v>44891</v>
+        <v>45262</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="3"/>
@@ -8794,13 +8750,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="6">
         <f>C80+2</f>
-        <v>44893</v>
+        <v>45264</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="7">WEEKDAY(C81)</f>
@@ -8814,13 +8770,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="9">
         <f t="shared" ref="C82:C86" si="8">C81+1</f>
-        <v>44894</v>
+        <v>45265</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="7"/>
@@ -8834,7 +8790,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -8842,7 +8798,7 @@
       </c>
       <c r="C83" s="12">
         <f>C82+1</f>
-        <v>44895</v>
+        <v>45266</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="7"/>
@@ -8856,13 +8812,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="6">
         <f>C83+1</f>
-        <v>44896</v>
+        <v>45267</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="7"/>
@@ -8876,13 +8832,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="6">
         <f t="shared" si="8"/>
-        <v>44897</v>
+        <v>45268</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="7"/>
@@ -8896,13 +8852,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="6">
         <f t="shared" si="8"/>
-        <v>44898</v>
+        <v>45269</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="7"/>
@@ -8916,13 +8872,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="6">
         <f>C86+2</f>
-        <v>44900</v>
+        <v>45271</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="7"/>
@@ -8936,13 +8892,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="9">
         <f t="shared" ref="C88:C92" si="9">C87+1</f>
-        <v>44901</v>
+        <v>45272</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="7"/>
@@ -8956,7 +8912,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -8964,7 +8920,7 @@
       </c>
       <c r="C89" s="12">
         <f>C88+1</f>
-        <v>44902</v>
+        <v>45273</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="7"/>
@@ -8978,13 +8934,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="6">
         <f>C89+1</f>
-        <v>44903</v>
+        <v>45274</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="7"/>
@@ -8998,13 +8954,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="6">
         <f t="shared" si="9"/>
-        <v>44904</v>
+        <v>45275</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="7"/>
@@ -9018,13 +8974,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="6">
         <f t="shared" si="9"/>
-        <v>44905</v>
+        <v>45276</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="7"/>
@@ -9038,13 +8994,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="6">
         <f>C92+2</f>
-        <v>44907</v>
+        <v>45278</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="7"/>
@@ -9058,13 +9014,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="60">
         <f t="shared" ref="C94" si="10">C93+1</f>
-        <v>44908</v>
+        <v>45279</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="7"/>
@@ -9079,6 +9035,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="J7:J19"/>
@@ -9092,11 +9053,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -9145,7 +9101,7 @@
       </c>
       <c r="C2" s="93">
         <f>C5</f>
-        <v>44805</v>
+        <v>45176</v>
       </c>
       <c r="D2" s="93"/>
       <c r="E2" s="2"/>
@@ -9155,11 +9111,11 @@
       <c r="B3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="92">
         <f>C94</f>
-        <v>44909</v>
-      </c>
-      <c r="D3" s="84"/>
+        <v>45280</v>
+      </c>
+      <c r="D3" s="92"/>
       <c r="E3" s="77" t="s">
         <v>107</v>
       </c>
@@ -9197,7 +9153,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -9205,7 +9161,7 @@
       </c>
       <c r="C5" s="76">
         <f>J5</f>
-        <v>44805</v>
+        <v>45176</v>
       </c>
       <c r="D5" s="46">
         <f>WEEKDAY(C5)</f>
@@ -9218,17 +9174,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44805</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="49">
         <f>C5+1</f>
-        <v>44806</v>
+        <v>45177</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -9243,13 +9199,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="49">
         <f t="shared" ref="C7:C70" si="0">C6+1</f>
-        <v>44807</v>
+        <v>45178</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="1">WEEKDAY(C7)</f>
@@ -9261,18 +9217,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="49">
         <f>C7+2</f>
-        <v>44809</v>
+        <v>45180</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
@@ -9284,16 +9240,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="49">
         <f>C8+1</f>
-        <v>44810</v>
+        <v>45181</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
@@ -9305,16 +9261,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="47">
         <f t="shared" si="0"/>
-        <v>44811</v>
+        <v>45182</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -9326,10 +9282,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -9337,7 +9293,7 @@
       </c>
       <c r="C11" s="48">
         <f>C10+1</f>
-        <v>44812</v>
+        <v>45183</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -9349,16 +9305,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="49">
         <f>C11+1</f>
-        <v>44813</v>
+        <v>45184</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -9370,16 +9326,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="49">
         <f t="shared" si="0"/>
-        <v>44814</v>
+        <v>45185</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -9391,16 +9347,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="49">
         <f>C13+2</f>
-        <v>44816</v>
+        <v>45187</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -9412,16 +9368,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="49">
         <f>C14+1</f>
-        <v>44817</v>
+        <v>45188</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -9433,16 +9389,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="47">
         <f t="shared" si="0"/>
-        <v>44818</v>
+        <v>45189</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -9454,10 +9410,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -9465,7 +9421,7 @@
       </c>
       <c r="C17" s="48">
         <f>C16+1</f>
-        <v>44819</v>
+        <v>45190</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="3">WEEKDAY(C17)</f>
@@ -9477,16 +9433,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="49">
         <f>C17+1</f>
-        <v>44820</v>
+        <v>45191</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="3"/>
@@ -9498,16 +9454,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="49">
         <f t="shared" si="0"/>
-        <v>44821</v>
+        <v>45192</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="3"/>
@@ -9519,16 +9475,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="49">
         <f>C19+2</f>
-        <v>44823</v>
+        <v>45194</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="3"/>
@@ -9542,13 +9498,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="49">
         <f>C20+1</f>
-        <v>44824</v>
+        <v>45195</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="3"/>
@@ -9562,13 +9518,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47">
         <f t="shared" si="0"/>
-        <v>44825</v>
+        <v>45196</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="3"/>
@@ -9582,7 +9538,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -9590,7 +9546,7 @@
       </c>
       <c r="C23" s="48">
         <f>C22+1</f>
-        <v>44826</v>
+        <v>45197</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="3"/>
@@ -9604,13 +9560,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="49">
         <f>C23+1</f>
-        <v>44827</v>
+        <v>45198</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="3"/>
@@ -9624,13 +9580,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="49">
         <f t="shared" si="0"/>
-        <v>44828</v>
+        <v>45199</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="3"/>
@@ -9644,13 +9600,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="49">
         <f>C25+2</f>
-        <v>44830</v>
+        <v>45201</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="3"/>
@@ -9664,13 +9620,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="49">
         <f>C26+1</f>
-        <v>44831</v>
+        <v>45202</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="3"/>
@@ -9684,13 +9640,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" si="0"/>
-        <v>44832</v>
+        <v>45203</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="3"/>
@@ -9704,7 +9660,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -9712,7 +9668,7 @@
       </c>
       <c r="C29" s="48">
         <f>C28+1</f>
-        <v>44833</v>
+        <v>45204</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="3"/>
@@ -9726,13 +9682,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="49">
         <f>C29+1</f>
-        <v>44834</v>
+        <v>45205</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="3"/>
@@ -9746,13 +9702,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="49">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>45206</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="3"/>
@@ -9766,13 +9722,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="49">
         <f>C31+2</f>
-        <v>44837</v>
+        <v>45208</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="3"/>
@@ -9786,13 +9742,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="49">
         <f>C32+1</f>
-        <v>44838</v>
+        <v>45209</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="3"/>
@@ -9806,13 +9762,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47">
         <f t="shared" si="0"/>
-        <v>44839</v>
+        <v>45210</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="3"/>
@@ -9826,7 +9782,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -9834,7 +9790,7 @@
       </c>
       <c r="C35" s="48">
         <f>C34+1</f>
-        <v>44840</v>
+        <v>45211</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="3"/>
@@ -9848,13 +9804,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="49">
         <f>C35+1</f>
-        <v>44841</v>
+        <v>45212</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="3"/>
@@ -9868,13 +9824,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="49">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45213</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="3"/>
@@ -9888,13 +9844,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="49">
         <f>C37+2</f>
-        <v>44844</v>
+        <v>45215</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="3"/>
@@ -9908,13 +9864,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="49">
         <f>C38+1</f>
-        <v>44845</v>
+        <v>45216</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="3"/>
@@ -9928,13 +9884,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" si="0"/>
-        <v>44846</v>
+        <v>45217</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="3"/>
@@ -9948,7 +9904,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -9956,7 +9912,7 @@
       </c>
       <c r="C41" s="48">
         <f>C40+1</f>
-        <v>44847</v>
+        <v>45218</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="3"/>
@@ -9970,13 +9926,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="49">
         <f>C41+1</f>
-        <v>44848</v>
+        <v>45219</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="3"/>
@@ -9990,13 +9946,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="49">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>45220</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="3"/>
@@ -10010,13 +9966,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="49">
         <f>C43+2</f>
-        <v>44851</v>
+        <v>45222</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="3"/>
@@ -10030,13 +9986,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="49">
         <f>C44+1</f>
-        <v>44852</v>
+        <v>45223</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="3"/>
@@ -10050,13 +10006,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" si="0"/>
-        <v>44853</v>
+        <v>45224</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="3"/>
@@ -10070,7 +10026,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -10078,7 +10034,7 @@
       </c>
       <c r="C47" s="48">
         <f>C46+1</f>
-        <v>44854</v>
+        <v>45225</v>
       </c>
       <c r="D47" s="46">
         <f t="shared" si="3"/>
@@ -10092,13 +10048,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="49">
         <f>C47+1</f>
-        <v>44855</v>
+        <v>45226</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="3"/>
@@ -10112,13 +10068,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="49">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>45227</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="3"/>
@@ -10132,13 +10088,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="49">
         <f>C49+2</f>
-        <v>44858</v>
+        <v>45229</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="3"/>
@@ -10152,13 +10108,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="49">
         <f>C50+1</f>
-        <v>44859</v>
+        <v>45230</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="3"/>
@@ -10172,13 +10128,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f t="shared" ref="C52" si="4">C51+1</f>
-        <v>44860</v>
+        <v>45231</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="3"/>
@@ -10192,7 +10148,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -10200,7 +10156,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+1</f>
-        <v>44861</v>
+        <v>45232</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="3"/>
@@ -10214,13 +10170,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="49">
         <f>C53+1</f>
-        <v>44862</v>
+        <v>45233</v>
       </c>
       <c r="D54" s="43">
         <f t="shared" si="3"/>
@@ -10234,13 +10190,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="49">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>45234</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="3"/>
@@ -10254,13 +10210,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="49">
         <f>C55+2</f>
-        <v>44865</v>
+        <v>45236</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="3"/>
@@ -10274,13 +10230,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="49">
         <f>C56+1</f>
-        <v>44866</v>
+        <v>45237</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="3"/>
@@ -10294,13 +10250,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="47">
         <f t="shared" si="0"/>
-        <v>44867</v>
+        <v>45238</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="3"/>
@@ -10314,7 +10270,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -10322,7 +10278,7 @@
       </c>
       <c r="C59" s="48">
         <f>C58+1</f>
-        <v>44868</v>
+        <v>45239</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="3"/>
@@ -10336,13 +10292,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="49">
         <f>C59+1</f>
-        <v>44869</v>
+        <v>45240</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="3"/>
@@ -10356,13 +10312,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="49">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>45241</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="3"/>
@@ -10376,13 +10332,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="49">
         <f>C61+2</f>
-        <v>44872</v>
+        <v>45243</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="3"/>
@@ -10396,13 +10352,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="49">
         <f>C62+1</f>
-        <v>44873</v>
+        <v>45244</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="3"/>
@@ -10416,13 +10372,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="47">
         <f t="shared" si="0"/>
-        <v>44874</v>
+        <v>45245</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="3"/>
@@ -10436,7 +10392,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -10444,7 +10400,7 @@
       </c>
       <c r="C65" s="48">
         <f>C64+1</f>
-        <v>44875</v>
+        <v>45246</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="3"/>
@@ -10458,13 +10414,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="49">
         <f>C65+1</f>
-        <v>44876</v>
+        <v>45247</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="3"/>
@@ -10478,13 +10434,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="49">
         <f t="shared" si="0"/>
-        <v>44877</v>
+        <v>45248</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="3"/>
@@ -10498,13 +10454,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="49">
         <f>C67+2</f>
-        <v>44879</v>
+        <v>45250</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="3"/>
@@ -10518,13 +10474,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="49">
         <f>C68+1</f>
-        <v>44880</v>
+        <v>45251</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="3"/>
@@ -10538,13 +10494,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="47">
         <f t="shared" si="0"/>
-        <v>44881</v>
+        <v>45252</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="3"/>
@@ -10558,7 +10514,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -10566,7 +10522,7 @@
       </c>
       <c r="C71" s="48">
         <f>C70+1</f>
-        <v>44882</v>
+        <v>45253</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="3"/>
@@ -10580,13 +10536,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="49">
         <f>C71+1</f>
-        <v>44883</v>
+        <v>45254</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="3"/>
@@ -10600,13 +10556,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="49">
         <f t="shared" ref="C73" si="5">C72+1</f>
-        <v>44884</v>
+        <v>45255</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="3"/>
@@ -10620,13 +10576,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="49">
         <f>C73+2</f>
-        <v>44886</v>
+        <v>45257</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="3"/>
@@ -10640,13 +10596,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="49">
         <f>C74+1</f>
-        <v>44887</v>
+        <v>45258</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="3"/>
@@ -10660,13 +10616,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="47">
         <f t="shared" ref="C76:C79" si="6">C75+1</f>
-        <v>44888</v>
+        <v>45259</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="3"/>
@@ -10680,7 +10636,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -10688,7 +10644,7 @@
       </c>
       <c r="C77" s="48">
         <f>C76+1</f>
-        <v>44889</v>
+        <v>45260</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="3"/>
@@ -10702,13 +10658,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="49">
         <f>C77+1</f>
-        <v>44890</v>
+        <v>45261</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="3"/>
@@ -10722,13 +10678,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="49">
         <f t="shared" si="6"/>
-        <v>44891</v>
+        <v>45262</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="3"/>
@@ -10742,13 +10698,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="49">
         <f>C79+2</f>
-        <v>44893</v>
+        <v>45264</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="3"/>
@@ -10762,13 +10718,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="49">
         <f>C80+1</f>
-        <v>44894</v>
+        <v>45265</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="7">WEEKDAY(C81)</f>
@@ -10782,13 +10738,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="47">
         <f t="shared" ref="C82:C85" si="8">C81+1</f>
-        <v>44895</v>
+        <v>45266</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="7"/>
@@ -10802,7 +10758,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -10810,7 +10766,7 @@
       </c>
       <c r="C83" s="48">
         <f>C82+1</f>
-        <v>44896</v>
+        <v>45267</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="7"/>
@@ -10824,13 +10780,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="49">
         <f>C83+1</f>
-        <v>44897</v>
+        <v>45268</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="7"/>
@@ -10844,13 +10800,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="49">
         <f t="shared" si="8"/>
-        <v>44898</v>
+        <v>45269</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="7"/>
@@ -10864,13 +10820,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="49">
         <f>C85+2</f>
-        <v>44900</v>
+        <v>45271</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="7"/>
@@ -10884,13 +10840,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="49">
         <f>C86+1</f>
-        <v>44901</v>
+        <v>45272</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="7"/>
@@ -10904,13 +10860,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="47">
         <f t="shared" ref="C88:C91" si="9">C87+1</f>
-        <v>44902</v>
+        <v>45273</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="7"/>
@@ -10924,7 +10880,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -10932,7 +10888,7 @@
       </c>
       <c r="C89" s="48">
         <f>C88+1</f>
-        <v>44903</v>
+        <v>45274</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="7"/>
@@ -10946,13 +10902,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="49">
         <f>C89+1</f>
-        <v>44904</v>
+        <v>45275</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="7"/>
@@ -10966,13 +10922,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="49">
         <f t="shared" si="9"/>
-        <v>44905</v>
+        <v>45276</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="7"/>
@@ -10986,13 +10942,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="49">
         <f>C91+2</f>
-        <v>44907</v>
+        <v>45278</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="7"/>
@@ -11006,13 +10962,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="49">
         <f>C92+1</f>
-        <v>44908</v>
+        <v>45279</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="7"/>
@@ -11026,13 +10982,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="59">
         <f t="shared" ref="C94" si="10">C93+1</f>
-        <v>44909</v>
+        <v>45280</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="7"/>
@@ -11047,11 +11003,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="J7:J19"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="A17:A22"/>
@@ -11065,6 +11016,11 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="J7:J19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -11111,11 +11067,11 @@
       <c r="B2" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="91">
         <f>C5</f>
-        <v>44806</v>
-      </c>
-      <c r="D2" s="83"/>
+        <v>45177</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="G2" s="38"/>
     </row>
@@ -11125,7 +11081,7 @@
       </c>
       <c r="C3" s="94">
         <f>C94</f>
-        <v>44910</v>
+        <v>45281</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="40" t="s">
@@ -11165,7 +11121,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -11173,7 +11129,7 @@
       </c>
       <c r="C5" s="58">
         <f>J5</f>
-        <v>44806</v>
+        <v>45177</v>
       </c>
       <c r="D5" s="42">
         <f>WEEKDAY(C5)</f>
@@ -11186,17 +11142,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44806</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="49">
         <f>C5+1</f>
-        <v>44807</v>
+        <v>45178</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -11211,13 +11167,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="49">
         <f>C6+2</f>
-        <v>44809</v>
+        <v>45180</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="0">WEEKDAY(C7)</f>
@@ -11229,18 +11185,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="49">
         <f t="shared" ref="C8:C16" si="1">C7+1</f>
-        <v>44810</v>
+        <v>45181</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="0"/>
@@ -11252,16 +11208,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" si="1"/>
-        <v>44811</v>
+        <v>45182</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="0"/>
@@ -11273,16 +11229,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="47">
         <f t="shared" si="1"/>
-        <v>44812</v>
+        <v>45183</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -11294,10 +11250,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -11305,7 +11261,7 @@
       </c>
       <c r="C11" s="48">
         <f>C10+1</f>
-        <v>44813</v>
+        <v>45184</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -11317,16 +11273,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="49">
         <f>C11+1</f>
-        <v>44814</v>
+        <v>45185</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -11338,16 +11294,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="49">
         <f>C12+2</f>
-        <v>44816</v>
+        <v>45187</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -11359,16 +11315,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="49">
         <f t="shared" si="1"/>
-        <v>44817</v>
+        <v>45188</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -11380,16 +11336,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" si="1"/>
-        <v>44818</v>
+        <v>45189</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -11401,16 +11357,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="47">
         <f t="shared" si="1"/>
-        <v>44819</v>
+        <v>45190</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -11422,10 +11378,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -11433,7 +11389,7 @@
       </c>
       <c r="C17" s="48">
         <f>C16+1</f>
-        <v>44820</v>
+        <v>45191</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="3">WEEKDAY(C17)</f>
@@ -11445,16 +11401,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="49">
         <f>C17+1</f>
-        <v>44821</v>
+        <v>45192</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="3"/>
@@ -11466,16 +11422,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="49">
         <f>C18+2</f>
-        <v>44823</v>
+        <v>45194</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="3"/>
@@ -11487,16 +11443,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="49">
         <f t="shared" ref="C20:C22" si="4">C19+1</f>
-        <v>44824</v>
+        <v>45195</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="3"/>
@@ -11510,13 +11466,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" si="4"/>
-        <v>44825</v>
+        <v>45196</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="3"/>
@@ -11530,13 +11486,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47">
         <f t="shared" si="4"/>
-        <v>44826</v>
+        <v>45197</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="3"/>
@@ -11550,7 +11506,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -11558,7 +11514,7 @@
       </c>
       <c r="C23" s="48">
         <f>C22+1</f>
-        <v>44827</v>
+        <v>45198</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="3"/>
@@ -11572,13 +11528,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="49">
         <f>C23+1</f>
-        <v>44828</v>
+        <v>45199</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="3"/>
@@ -11592,13 +11548,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="49">
         <f>C24+2</f>
-        <v>44830</v>
+        <v>45201</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="3"/>
@@ -11612,13 +11568,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="49">
         <f t="shared" ref="C26:C28" si="5">C25+1</f>
-        <v>44831</v>
+        <v>45202</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="3"/>
@@ -11632,13 +11588,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="49">
         <f t="shared" si="5"/>
-        <v>44832</v>
+        <v>45203</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="3"/>
@@ -11652,13 +11608,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" si="5"/>
-        <v>44833</v>
+        <v>45204</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="3"/>
@@ -11672,7 +11628,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -11680,7 +11636,7 @@
       </c>
       <c r="C29" s="48">
         <f>C28+1</f>
-        <v>44834</v>
+        <v>45205</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="3"/>
@@ -11694,13 +11650,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="49">
         <f>C29+1</f>
-        <v>44835</v>
+        <v>45206</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="3"/>
@@ -11714,13 +11670,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="49">
         <f>C30+2</f>
-        <v>44837</v>
+        <v>45208</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="3"/>
@@ -11734,13 +11690,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="49">
         <f t="shared" ref="C32:C34" si="6">C31+1</f>
-        <v>44838</v>
+        <v>45209</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="3"/>
@@ -11754,13 +11710,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="49">
         <f t="shared" si="6"/>
-        <v>44839</v>
+        <v>45210</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="3"/>
@@ -11774,13 +11730,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47">
         <f t="shared" si="6"/>
-        <v>44840</v>
+        <v>45211</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="3"/>
@@ -11794,7 +11750,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -11802,7 +11758,7 @@
       </c>
       <c r="C35" s="48">
         <f>C34+1</f>
-        <v>44841</v>
+        <v>45212</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="3"/>
@@ -11816,13 +11772,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="49">
         <f>C35+1</f>
-        <v>44842</v>
+        <v>45213</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="3"/>
@@ -11836,13 +11792,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="49">
         <f>C36+2</f>
-        <v>44844</v>
+        <v>45215</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="3"/>
@@ -11856,13 +11812,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="49">
         <f t="shared" ref="C38:C40" si="7">C37+1</f>
-        <v>44845</v>
+        <v>45216</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="3"/>
@@ -11876,13 +11832,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="49">
         <f t="shared" si="7"/>
-        <v>44846</v>
+        <v>45217</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="3"/>
@@ -11896,13 +11852,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" si="7"/>
-        <v>44847</v>
+        <v>45218</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="3"/>
@@ -11916,7 +11872,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -11924,7 +11880,7 @@
       </c>
       <c r="C41" s="48">
         <f>C40+1</f>
-        <v>44848</v>
+        <v>45219</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="3"/>
@@ -11938,13 +11894,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="49">
         <f>C41+1</f>
-        <v>44849</v>
+        <v>45220</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="3"/>
@@ -11958,13 +11914,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="49">
         <f>C42+2</f>
-        <v>44851</v>
+        <v>45222</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="3"/>
@@ -11978,13 +11934,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="49">
         <f t="shared" ref="C44:C46" si="8">C43+1</f>
-        <v>44852</v>
+        <v>45223</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="3"/>
@@ -11998,13 +11954,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="49">
         <f t="shared" si="8"/>
-        <v>44853</v>
+        <v>45224</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="3"/>
@@ -12018,13 +11974,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" si="8"/>
-        <v>44854</v>
+        <v>45225</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="3"/>
@@ -12038,7 +11994,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -12046,7 +12002,7 @@
       </c>
       <c r="C47" s="63">
         <f>C46+1</f>
-        <v>44855</v>
+        <v>45226</v>
       </c>
       <c r="D47" s="64">
         <f t="shared" si="3"/>
@@ -12060,13 +12016,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="49">
         <f>C47+1</f>
-        <v>44856</v>
+        <v>45227</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="3"/>
@@ -12080,13 +12036,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="49">
         <f>C48+2</f>
-        <v>44858</v>
+        <v>45229</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="3"/>
@@ -12100,13 +12056,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="49">
         <f t="shared" ref="C50:C52" si="9">C49+1</f>
-        <v>44859</v>
+        <v>45230</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="3"/>
@@ -12120,13 +12076,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="49">
         <f t="shared" si="9"/>
-        <v>44860</v>
+        <v>45231</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="3"/>
@@ -12140,13 +12096,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f t="shared" si="9"/>
-        <v>44861</v>
+        <v>45232</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="3"/>
@@ -12160,7 +12116,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -12168,7 +12124,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+1</f>
-        <v>44862</v>
+        <v>45233</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="3"/>
@@ -12182,13 +12138,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="49">
         <f>C53+1</f>
-        <v>44863</v>
+        <v>45234</v>
       </c>
       <c r="D54" s="43">
         <f t="shared" si="3"/>
@@ -12202,13 +12158,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="49">
         <f>C54+2</f>
-        <v>44865</v>
+        <v>45236</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="3"/>
@@ -12222,13 +12178,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="49">
         <f t="shared" ref="C56:C58" si="10">C55+1</f>
-        <v>44866</v>
+        <v>45237</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="3"/>
@@ -12242,13 +12198,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="49">
         <f t="shared" si="10"/>
-        <v>44867</v>
+        <v>45238</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="3"/>
@@ -12262,13 +12218,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="47">
         <f t="shared" si="10"/>
-        <v>44868</v>
+        <v>45239</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="3"/>
@@ -12282,7 +12238,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -12290,7 +12246,7 @@
       </c>
       <c r="C59" s="48">
         <f>C58+1</f>
-        <v>44869</v>
+        <v>45240</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="3"/>
@@ -12304,13 +12260,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="49">
         <f>C59+1</f>
-        <v>44870</v>
+        <v>45241</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="3"/>
@@ -12324,13 +12280,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="49">
         <f>C60+2</f>
-        <v>44872</v>
+        <v>45243</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="3"/>
@@ -12344,13 +12300,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="49">
         <f t="shared" ref="C62:C64" si="11">C61+1</f>
-        <v>44873</v>
+        <v>45244</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="3"/>
@@ -12364,13 +12320,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="49">
         <f t="shared" si="11"/>
-        <v>44874</v>
+        <v>45245</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="3"/>
@@ -12384,13 +12340,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="47">
         <f t="shared" si="11"/>
-        <v>44875</v>
+        <v>45246</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="3"/>
@@ -12404,7 +12360,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -12412,7 +12368,7 @@
       </c>
       <c r="C65" s="48">
         <f>C64+1</f>
-        <v>44876</v>
+        <v>45247</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="3"/>
@@ -12426,13 +12382,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="49">
         <f>C65+1</f>
-        <v>44877</v>
+        <v>45248</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="3"/>
@@ -12446,13 +12402,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="49">
         <f>C66+2</f>
-        <v>44879</v>
+        <v>45250</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="3"/>
@@ -12466,13 +12422,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="49">
         <f t="shared" ref="C68:C70" si="12">C67+1</f>
-        <v>44880</v>
+        <v>45251</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="3"/>
@@ -12486,13 +12442,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="49">
         <f t="shared" si="12"/>
-        <v>44881</v>
+        <v>45252</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="3"/>
@@ -12506,13 +12462,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="47">
         <f t="shared" si="12"/>
-        <v>44882</v>
+        <v>45253</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="3"/>
@@ -12526,7 +12482,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -12534,7 +12490,7 @@
       </c>
       <c r="C71" s="48">
         <f>C70+1</f>
-        <v>44883</v>
+        <v>45254</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="3"/>
@@ -12548,13 +12504,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="49">
         <f>C71+1</f>
-        <v>44884</v>
+        <v>45255</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="3"/>
@@ -12568,13 +12524,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="49">
         <f>C72+2</f>
-        <v>44886</v>
+        <v>45257</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="3"/>
@@ -12588,13 +12544,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="49">
         <f t="shared" ref="C74:C76" si="13">C73+1</f>
-        <v>44887</v>
+        <v>45258</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="3"/>
@@ -12608,13 +12564,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="49">
         <f t="shared" si="13"/>
-        <v>44888</v>
+        <v>45259</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="3"/>
@@ -12628,13 +12584,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="47">
         <f t="shared" si="13"/>
-        <v>44889</v>
+        <v>45260</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="3"/>
@@ -12648,7 +12604,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -12656,7 +12612,7 @@
       </c>
       <c r="C77" s="48">
         <f>C76+1</f>
-        <v>44890</v>
+        <v>45261</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="3"/>
@@ -12670,13 +12626,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="49">
         <f>C77+1</f>
-        <v>44891</v>
+        <v>45262</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="3"/>
@@ -12690,13 +12646,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="49">
         <f>C78+2</f>
-        <v>44893</v>
+        <v>45264</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="3"/>
@@ -12710,13 +12666,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="49">
         <f t="shared" ref="C80:C82" si="14">C79+1</f>
-        <v>44894</v>
+        <v>45265</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="3"/>
@@ -12730,13 +12686,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="49">
         <f t="shared" si="14"/>
-        <v>44895</v>
+        <v>45266</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="15">WEEKDAY(C81)</f>
@@ -12750,13 +12706,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="47">
         <f t="shared" si="14"/>
-        <v>44896</v>
+        <v>45267</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="15"/>
@@ -12770,7 +12726,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -12778,7 +12734,7 @@
       </c>
       <c r="C83" s="48">
         <f>C82+1</f>
-        <v>44897</v>
+        <v>45268</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="15"/>
@@ -12792,13 +12748,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="49">
         <f>C83+1</f>
-        <v>44898</v>
+        <v>45269</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="15"/>
@@ -12812,13 +12768,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="49">
         <f>C84+2</f>
-        <v>44900</v>
+        <v>45271</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="15"/>
@@ -12832,13 +12788,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="49">
         <f t="shared" ref="C86:C88" si="16">C85+1</f>
-        <v>44901</v>
+        <v>45272</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="15"/>
@@ -12852,13 +12808,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="49">
         <f t="shared" si="16"/>
-        <v>44902</v>
+        <v>45273</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="15"/>
@@ -12872,13 +12828,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="47">
         <f t="shared" si="16"/>
-        <v>44903</v>
+        <v>45274</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="15"/>
@@ -12892,7 +12848,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -12900,7 +12856,7 @@
       </c>
       <c r="C89" s="48">
         <f>C88+1</f>
-        <v>44904</v>
+        <v>45275</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="15"/>
@@ -12914,13 +12870,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="49">
         <f>C89+1</f>
-        <v>44905</v>
+        <v>45276</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="15"/>
@@ -12934,13 +12890,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="49">
         <f>C90+2</f>
-        <v>44907</v>
+        <v>45278</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="15"/>
@@ -12954,13 +12910,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="49">
         <f t="shared" ref="C92:C94" si="17">C91+1</f>
-        <v>44908</v>
+        <v>45279</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="15"/>
@@ -12974,13 +12930,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="49">
         <f t="shared" si="17"/>
-        <v>44909</v>
+        <v>45280</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="15"/>
@@ -12994,13 +12950,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="59">
         <f t="shared" si="17"/>
-        <v>44910</v>
+        <v>45281</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="15"/>
@@ -13015,16 +12971,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="J7:J19"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
@@ -13033,6 +12979,16 @@
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A82"/>
+    <mergeCell ref="J7:J19"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -13079,11 +13035,11 @@
       <c r="B2" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="91">
         <f>C5</f>
-        <v>44807</v>
-      </c>
-      <c r="D2" s="83"/>
+        <v>45178</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="2"/>
       <c r="G2" s="38"/>
     </row>
@@ -13094,7 +13050,7 @@
       </c>
       <c r="C3" s="94">
         <f>C94</f>
-        <v>44911</v>
+        <v>45282</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="77" t="s">
@@ -13134,7 +13090,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -13142,7 +13098,7 @@
       </c>
       <c r="C5" s="58">
         <f>J5</f>
-        <v>44807</v>
+        <v>45178</v>
       </c>
       <c r="D5" s="42">
         <f>WEEKDAY(C5)</f>
@@ -13155,17 +13111,17 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" s="55">
-        <v>44807</v>
+        <v>45178</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="49">
         <f>C5+2</f>
-        <v>44809</v>
+        <v>45180</v>
       </c>
       <c r="D6" s="43">
         <f>WEEKDAY(C6)</f>
@@ -13180,13 +13136,13 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="49">
         <f t="shared" ref="C7:C70" si="0">C6+1</f>
-        <v>44810</v>
+        <v>45181</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" ref="D7:D9" si="1">WEEKDAY(C7)</f>
@@ -13198,18 +13154,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="88" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="49">
         <f t="shared" si="0"/>
-        <v>44811</v>
+        <v>45182</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
@@ -13221,16 +13177,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="J8" s="90"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="49">
         <f t="shared" si="0"/>
-        <v>44812</v>
+        <v>45183</v>
       </c>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
@@ -13242,16 +13198,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="47">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>45184</v>
       </c>
       <c r="D10" s="44">
         <f>WEEKDAY(C10)</f>
@@ -13263,10 +13219,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -13274,7 +13230,7 @@
       </c>
       <c r="C11" s="48">
         <f t="shared" si="0"/>
-        <v>44814</v>
+        <v>45185</v>
       </c>
       <c r="D11" s="46">
         <f>WEEKDAY(C11)</f>
@@ -13286,16 +13242,16 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="49">
         <f>C11+2</f>
-        <v>44816</v>
+        <v>45187</v>
       </c>
       <c r="D12" s="43">
         <f>WEEKDAY(C12)</f>
@@ -13307,16 +13263,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="90"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="49">
         <f t="shared" si="0"/>
-        <v>44817</v>
+        <v>45188</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" ref="D13:D15" si="2">WEEKDAY(C13)</f>
@@ -13328,16 +13284,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="90"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="49">
         <f t="shared" si="0"/>
-        <v>44818</v>
+        <v>45189</v>
       </c>
       <c r="D14" s="43">
         <f t="shared" si="2"/>
@@ -13349,16 +13305,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="90"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" si="0"/>
-        <v>44819</v>
+        <v>45190</v>
       </c>
       <c r="D15" s="43">
         <f t="shared" si="2"/>
@@ -13370,16 +13326,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="87"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="47">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>45191</v>
       </c>
       <c r="D16" s="44">
         <f>WEEKDAY(C16)</f>
@@ -13391,10 +13347,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="83" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -13402,7 +13358,7 @@
       </c>
       <c r="C17" s="48">
         <f t="shared" si="0"/>
-        <v>44821</v>
+        <v>45192</v>
       </c>
       <c r="D17" s="46">
         <f t="shared" ref="D17:D80" si="3">WEEKDAY(C17)</f>
@@ -13414,16 +13370,16 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="49">
         <f>C17+2</f>
-        <v>44823</v>
+        <v>45194</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" si="3"/>
@@ -13435,16 +13391,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="90"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="49">
         <f t="shared" si="0"/>
-        <v>44824</v>
+        <v>45195</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="3"/>
@@ -13456,16 +13412,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="49">
         <f t="shared" si="0"/>
-        <v>44825</v>
+        <v>45196</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="3"/>
@@ -13479,13 +13435,13 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" si="0"/>
-        <v>44826</v>
+        <v>45197</v>
       </c>
       <c r="D21" s="43">
         <f t="shared" si="3"/>
@@ -13499,13 +13455,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="87"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>45198</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" si="3"/>
@@ -13519,7 +13475,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -13527,7 +13483,7 @@
       </c>
       <c r="C23" s="48">
         <f t="shared" si="0"/>
-        <v>44828</v>
+        <v>45199</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" si="3"/>
@@ -13541,13 +13497,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="49">
         <f>C23+2</f>
-        <v>44830</v>
+        <v>45201</v>
       </c>
       <c r="D24" s="43">
         <f t="shared" si="3"/>
@@ -13561,13 +13517,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="49">
         <f t="shared" si="0"/>
-        <v>44831</v>
+        <v>45202</v>
       </c>
       <c r="D25" s="43">
         <f t="shared" si="3"/>
@@ -13581,13 +13537,13 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="49">
         <f t="shared" si="0"/>
-        <v>44832</v>
+        <v>45203</v>
       </c>
       <c r="D26" s="43">
         <f t="shared" si="3"/>
@@ -13601,13 +13557,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="49">
         <f t="shared" si="0"/>
-        <v>44833</v>
+        <v>45204</v>
       </c>
       <c r="D27" s="43">
         <f t="shared" si="3"/>
@@ -13621,13 +13577,13 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="87"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>45205</v>
       </c>
       <c r="D28" s="44">
         <f t="shared" si="3"/>
@@ -13641,7 +13597,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="51" t="s">
@@ -13649,7 +13605,7 @@
       </c>
       <c r="C29" s="48">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>45206</v>
       </c>
       <c r="D29" s="46">
         <f t="shared" si="3"/>
@@ -13663,13 +13619,13 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="49">
         <f>C29+2</f>
-        <v>44837</v>
+        <v>45208</v>
       </c>
       <c r="D30" s="43">
         <f t="shared" si="3"/>
@@ -13683,13 +13639,13 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="49">
         <f t="shared" si="0"/>
-        <v>44838</v>
+        <v>45209</v>
       </c>
       <c r="D31" s="43">
         <f t="shared" si="3"/>
@@ -13703,13 +13659,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="49">
         <f t="shared" si="0"/>
-        <v>44839</v>
+        <v>45210</v>
       </c>
       <c r="D32" s="43">
         <f t="shared" si="3"/>
@@ -13723,13 +13679,13 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="49">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>45211</v>
       </c>
       <c r="D33" s="43">
         <f t="shared" si="3"/>
@@ -13743,13 +13699,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="87"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>45212</v>
       </c>
       <c r="D34" s="44">
         <f t="shared" si="3"/>
@@ -13763,7 +13719,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -13771,7 +13727,7 @@
       </c>
       <c r="C35" s="48">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45213</v>
       </c>
       <c r="D35" s="46">
         <f t="shared" si="3"/>
@@ -13785,13 +13741,13 @@
       <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="49">
         <f>C35+2</f>
-        <v>44844</v>
+        <v>45215</v>
       </c>
       <c r="D36" s="43">
         <f t="shared" si="3"/>
@@ -13805,13 +13761,13 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="49">
         <f t="shared" si="0"/>
-        <v>44845</v>
+        <v>45216</v>
       </c>
       <c r="D37" s="43">
         <f t="shared" si="3"/>
@@ -13825,13 +13781,13 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="86"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="49">
         <f t="shared" si="0"/>
-        <v>44846</v>
+        <v>45217</v>
       </c>
       <c r="D38" s="43">
         <f t="shared" si="3"/>
@@ -13845,13 +13801,13 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="49">
         <f t="shared" si="0"/>
-        <v>44847</v>
+        <v>45218</v>
       </c>
       <c r="D39" s="43">
         <f t="shared" si="3"/>
@@ -13865,13 +13821,13 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>45219</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="3"/>
@@ -13885,7 +13841,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -13893,7 +13849,7 @@
       </c>
       <c r="C41" s="48">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>45220</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="3"/>
@@ -13907,13 +13863,13 @@
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="49">
         <f>C41+2</f>
-        <v>44851</v>
+        <v>45222</v>
       </c>
       <c r="D42" s="43">
         <f t="shared" si="3"/>
@@ -13927,13 +13883,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="49">
         <f t="shared" si="0"/>
-        <v>44852</v>
+        <v>45223</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" si="3"/>
@@ -13947,13 +13903,13 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="86"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="49">
         <f t="shared" si="0"/>
-        <v>44853</v>
+        <v>45224</v>
       </c>
       <c r="D44" s="43">
         <f t="shared" si="3"/>
@@ -13967,13 +13923,13 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="86"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="49">
         <f t="shared" si="0"/>
-        <v>44854</v>
+        <v>45225</v>
       </c>
       <c r="D45" s="43">
         <f t="shared" si="3"/>
@@ -13987,13 +13943,13 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="87"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>45226</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="3"/>
@@ -14007,7 +13963,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -14015,7 +13971,7 @@
       </c>
       <c r="C47" s="48">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>45227</v>
       </c>
       <c r="D47" s="46">
         <f t="shared" si="3"/>
@@ -14029,13 +13985,13 @@
       <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="49">
         <f>C47+2</f>
-        <v>44858</v>
+        <v>45229</v>
       </c>
       <c r="D48" s="43">
         <f t="shared" si="3"/>
@@ -14049,13 +14005,13 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="49">
         <f t="shared" si="0"/>
-        <v>44859</v>
+        <v>45230</v>
       </c>
       <c r="D49" s="43">
         <f t="shared" si="3"/>
@@ -14069,13 +14025,13 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="49">
         <f t="shared" si="0"/>
-        <v>44860</v>
+        <v>45231</v>
       </c>
       <c r="D50" s="43">
         <f t="shared" si="3"/>
@@ -14089,13 +14045,13 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="49">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>45232</v>
       </c>
       <c r="D51" s="43">
         <f t="shared" si="3"/>
@@ -14109,13 +14065,13 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="89"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="81">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>45233</v>
       </c>
       <c r="D52" s="45">
         <f t="shared" si="3"/>
@@ -14129,7 +14085,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="89" t="s">
         <v>196</v>
       </c>
       <c r="B53" s="68" t="s">
@@ -14137,7 +14093,7 @@
       </c>
       <c r="C53" s="48">
         <f>C52+1</f>
-        <v>44863</v>
+        <v>45234</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="3"/>
@@ -14151,13 +14107,13 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="48">
         <f>C53+2</f>
-        <v>44865</v>
+        <v>45236</v>
       </c>
       <c r="D54" s="46">
         <f t="shared" si="3"/>
@@ -14171,13 +14127,13 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="49">
         <f t="shared" si="0"/>
-        <v>44866</v>
+        <v>45237</v>
       </c>
       <c r="D55" s="43">
         <f t="shared" si="3"/>
@@ -14191,13 +14147,13 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="49">
         <f t="shared" si="0"/>
-        <v>44867</v>
+        <v>45238</v>
       </c>
       <c r="D56" s="43">
         <f t="shared" si="3"/>
@@ -14211,13 +14167,13 @@
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="49">
         <f t="shared" si="0"/>
-        <v>44868</v>
+        <v>45239</v>
       </c>
       <c r="D57" s="43">
         <f t="shared" si="3"/>
@@ -14231,13 +14187,13 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A58" s="92"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="47">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>45240</v>
       </c>
       <c r="D58" s="44">
         <f t="shared" si="3"/>
@@ -14251,7 +14207,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="89" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="51" t="s">
@@ -14259,7 +14215,7 @@
       </c>
       <c r="C59" s="48">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>45241</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="3"/>
@@ -14273,13 +14229,13 @@
       <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A60" s="86"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="49">
         <f>C59+2</f>
-        <v>44872</v>
+        <v>45243</v>
       </c>
       <c r="D60" s="43">
         <f t="shared" si="3"/>
@@ -14293,13 +14249,13 @@
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A61" s="86"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="49">
         <f t="shared" si="0"/>
-        <v>44873</v>
+        <v>45244</v>
       </c>
       <c r="D61" s="43">
         <f t="shared" si="3"/>
@@ -14313,13 +14269,13 @@
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A62" s="86"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="49">
         <f t="shared" si="0"/>
-        <v>44874</v>
+        <v>45245</v>
       </c>
       <c r="D62" s="43">
         <f t="shared" si="3"/>
@@ -14333,13 +14289,13 @@
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A63" s="86"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="49">
         <f t="shared" si="0"/>
-        <v>44875</v>
+        <v>45246</v>
       </c>
       <c r="D63" s="43">
         <f t="shared" si="3"/>
@@ -14353,13 +14309,13 @@
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="47">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>45247</v>
       </c>
       <c r="D64" s="44">
         <f t="shared" si="3"/>
@@ -14373,7 +14329,7 @@
       <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="83" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="51" t="s">
@@ -14381,7 +14337,7 @@
       </c>
       <c r="C65" s="48">
         <f t="shared" si="0"/>
-        <v>44877</v>
+        <v>45248</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="3"/>
@@ -14395,13 +14351,13 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="49">
         <f>C65+2</f>
-        <v>44879</v>
+        <v>45250</v>
       </c>
       <c r="D66" s="43">
         <f t="shared" si="3"/>
@@ -14415,13 +14371,13 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A67" s="86"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="49">
         <f t="shared" si="0"/>
-        <v>44880</v>
+        <v>45251</v>
       </c>
       <c r="D67" s="43">
         <f t="shared" si="3"/>
@@ -14435,13 +14391,13 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A68" s="86"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="49">
         <f t="shared" si="0"/>
-        <v>44881</v>
+        <v>45252</v>
       </c>
       <c r="D68" s="43">
         <f t="shared" si="3"/>
@@ -14455,13 +14411,13 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="49">
         <f t="shared" si="0"/>
-        <v>44882</v>
+        <v>45253</v>
       </c>
       <c r="D69" s="43">
         <f t="shared" si="3"/>
@@ -14475,13 +14431,13 @@
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="87"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="47">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>45254</v>
       </c>
       <c r="D70" s="44">
         <f t="shared" si="3"/>
@@ -14495,7 +14451,7 @@
       <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="83" t="s">
         <v>192</v>
       </c>
       <c r="B71" s="51" t="s">
@@ -14503,7 +14459,7 @@
       </c>
       <c r="C71" s="48">
         <f t="shared" ref="C71" si="4">C70+1</f>
-        <v>44884</v>
+        <v>45255</v>
       </c>
       <c r="D71" s="46">
         <f t="shared" si="3"/>
@@ -14517,13 +14473,13 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="49">
         <f>C71+2</f>
-        <v>44886</v>
+        <v>45257</v>
       </c>
       <c r="D72" s="43">
         <f t="shared" si="3"/>
@@ -14537,13 +14493,13 @@
       <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="86"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="49">
         <f t="shared" ref="C73:C77" si="5">C72+1</f>
-        <v>44887</v>
+        <v>45258</v>
       </c>
       <c r="D73" s="43">
         <f t="shared" si="3"/>
@@ -14557,13 +14513,13 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A74" s="86"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="49">
         <f t="shared" si="5"/>
-        <v>44888</v>
+        <v>45259</v>
       </c>
       <c r="D74" s="43">
         <f t="shared" si="3"/>
@@ -14577,13 +14533,13 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="49">
         <f t="shared" si="5"/>
-        <v>44889</v>
+        <v>45260</v>
       </c>
       <c r="D75" s="43">
         <f t="shared" si="3"/>
@@ -14597,13 +14553,13 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="87"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="47">
         <f t="shared" si="5"/>
-        <v>44890</v>
+        <v>45261</v>
       </c>
       <c r="D76" s="44">
         <f t="shared" si="3"/>
@@ -14617,7 +14573,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -14625,7 +14581,7 @@
       </c>
       <c r="C77" s="48">
         <f t="shared" si="5"/>
-        <v>44891</v>
+        <v>45262</v>
       </c>
       <c r="D77" s="46">
         <f t="shared" si="3"/>
@@ -14639,13 +14595,13 @@
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="86"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="49">
         <f>C77+2</f>
-        <v>44893</v>
+        <v>45264</v>
       </c>
       <c r="D78" s="43">
         <f t="shared" si="3"/>
@@ -14659,13 +14615,13 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="86"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="49">
         <f t="shared" ref="C79:C83" si="6">C78+1</f>
-        <v>44894</v>
+        <v>45265</v>
       </c>
       <c r="D79" s="43">
         <f t="shared" si="3"/>
@@ -14679,13 +14635,13 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="86"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="52" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="49">
         <f t="shared" si="6"/>
-        <v>44895</v>
+        <v>45266</v>
       </c>
       <c r="D80" s="43">
         <f t="shared" si="3"/>
@@ -14699,13 +14655,13 @@
       <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="86"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="49">
         <f t="shared" si="6"/>
-        <v>44896</v>
+        <v>45267</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:D94" si="7">WEEKDAY(C81)</f>
@@ -14719,13 +14675,13 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="87"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="47">
         <f t="shared" si="6"/>
-        <v>44897</v>
+        <v>45268</v>
       </c>
       <c r="D82" s="44">
         <f t="shared" si="7"/>
@@ -14739,7 +14695,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="83" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -14747,7 +14703,7 @@
       </c>
       <c r="C83" s="48">
         <f t="shared" si="6"/>
-        <v>44898</v>
+        <v>45269</v>
       </c>
       <c r="D83" s="46">
         <f t="shared" si="7"/>
@@ -14761,13 +14717,13 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A84" s="86"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="49">
         <f>C83+2</f>
-        <v>44900</v>
+        <v>45271</v>
       </c>
       <c r="D84" s="43">
         <f t="shared" si="7"/>
@@ -14781,13 +14737,13 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A85" s="86"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="49">
         <f t="shared" ref="C85:C89" si="8">C84+1</f>
-        <v>44901</v>
+        <v>45272</v>
       </c>
       <c r="D85" s="43">
         <f t="shared" si="7"/>
@@ -14801,13 +14757,13 @@
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A86" s="86"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="49">
         <f t="shared" si="8"/>
-        <v>44902</v>
+        <v>45273</v>
       </c>
       <c r="D86" s="43">
         <f t="shared" si="7"/>
@@ -14821,13 +14777,13 @@
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A87" s="86"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="49">
         <f t="shared" si="8"/>
-        <v>44903</v>
+        <v>45274</v>
       </c>
       <c r="D87" s="43">
         <f t="shared" si="7"/>
@@ -14841,13 +14797,13 @@
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="87"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="47">
         <f t="shared" si="8"/>
-        <v>44904</v>
+        <v>45275</v>
       </c>
       <c r="D88" s="44">
         <f t="shared" si="7"/>
@@ -14861,7 +14817,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="86" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -14869,7 +14825,7 @@
       </c>
       <c r="C89" s="48">
         <f t="shared" si="8"/>
-        <v>44905</v>
+        <v>45276</v>
       </c>
       <c r="D89" s="46">
         <f t="shared" si="7"/>
@@ -14883,13 +14839,13 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="86"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="49">
         <f>C89+2</f>
-        <v>44907</v>
+        <v>45278</v>
       </c>
       <c r="D90" s="43">
         <f t="shared" si="7"/>
@@ -14903,13 +14859,13 @@
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="86"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="49">
         <f t="shared" ref="C91:C94" si="9">C90+1</f>
-        <v>44908</v>
+        <v>45279</v>
       </c>
       <c r="D91" s="43">
         <f t="shared" si="7"/>
@@ -14923,13 +14879,13 @@
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="86"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="49">
         <f t="shared" si="9"/>
-        <v>44909</v>
+        <v>45280</v>
       </c>
       <c r="D92" s="43">
         <f t="shared" si="7"/>
@@ -14943,13 +14899,13 @@
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="86"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="49">
         <f t="shared" si="9"/>
-        <v>44910</v>
+        <v>45281</v>
       </c>
       <c r="D93" s="43">
         <f t="shared" si="7"/>
@@ -14963,13 +14919,13 @@
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A94" s="89"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="59">
         <f t="shared" si="9"/>
-        <v>44911</v>
+        <v>45282</v>
       </c>
       <c r="D94" s="45">
         <f t="shared" si="7"/>
@@ -14984,6 +14940,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="J7:J19"/>
@@ -14997,11 +14958,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
